--- a/medicine/Mort/Crématorium_de_Golders_Green/Crématorium_de_Golders_Green.xlsx
+++ b/medicine/Mort/Crématorium_de_Golders_Green/Crématorium_de_Golders_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9matorium_de_Golders_Green</t>
+          <t>Crématorium_de_Golders_Green</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crématorium de Golders Green est un crématorium anglais créé en 1902 à Hoop Lane, près de Finchley Road, Golders Green, à Londres. Il est classé monument de Grade II en 1981.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9matorium_de_Golders_Green</t>
+          <t>Crématorium_de_Golders_Green</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La crémation devient légale au Royaume-Uni en 1885[1]. La London Cremation Society s'organise pour créer un crématorium à Londres. Les architectes Ernest George et Alfred Yeates établissent les plans, tandis que William Robinson s'occupe des jardins.
-Il ouvre en 1902 et est modifié jusqu'en 1928[2]. L'installation est achevée en 1939.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crémation devient légale au Royaume-Uni en 1885. La London Cremation Society s'organise pour créer un crématorium à Londres. Les architectes Ernest George et Alfred Yeates établissent les plans, tandis que William Robinson s'occupe des jardins.
+Il ouvre en 1902 et est modifié jusqu'en 1928. L'installation est achevée en 1939.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9matorium_de_Golders_Green</t>
+          <t>Crématorium_de_Golders_Green</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Monuments remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins du crématorium sont inscrits en Grade I du registre national des parcs et jardins historiques. Le mausolée de la famille Philipson, conçu par Edwin Lutyens, est un bâtiment classé Grade II * sur la National Heritage List for England. Le bâtiment du crématorium, divers monuments commémoratifs, le mausolée de Martin Smith et la statue Into The Silent Land d'Henry Alfred Pegram  sont classés Grade II.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A9matorium_de_Golders_Green</t>
+          <t>Crématorium_de_Golders_Green</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Personnalités incinérées à Golders Green</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les cendres ont pu être déposées ailleurs.
 Mary Bridges-Adams, militante sociale
